--- a/medicine/Mort/Décès_en_1984/Décès_en_1984.xlsx
+++ b/medicine/Mort/Décès_en_1984/Décès_en_1984.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1er janvier : Cagancho (Joaquín Rodríguez Ortega), matador espagnol (° 17 février 1903).
 4 janvier : Gösta Lindh, footballeur suédois (° 8 février 1924).
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,7 +587,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1er février : Maurice Canning Wilks, peintre paysagiste irlandais (° 25 novembre 1910).
 3 février :  Antonio Montes, coureur cycliste espagnol (° 8 juin 1911).
@@ -601,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,7 +635,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars :
 Simone Colombier, peintre française (° 1er mai 1903).
@@ -636,7 +654,7 @@
 Evencio Castellanos, pianiste, chef d'orchestre et compositeur vénézuélien (° 3 mai 1915).
 Charles Héger, homme politique belge (° 26 mai 1902).
 Kayō Yamaguchi, peintre japonais (° 3 octobre 1899).
-21 mars : Jacques Cousin, footballeur français (° 6 mai 1921)[1].
+21 mars : Jacques Cousin, footballeur français (° 6 mai 1921).
 23 mars :
 Élisabeth Bardon, peintre, graveuse et illustratrice française (° 23 mars 1984).
 Shauna Grant, actrice pornographique américaine (° 24 mai 1963).
@@ -652,7 +670,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -670,7 +688,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1er avril : Marvin Gaye chanteur américain (° 2 avril 1939).
 5 avril : Guy Kerner, acteur français (° 28 janvier 1922).
@@ -699,7 +719,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -717,7 +737,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1er mai : Charles Nicolas, joueur et entraîneur de football français (° 5 juin 1916).
 4 mai :
@@ -744,7 +766,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +784,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>5 juin :
 Camille Guillon, peintre, décorateur et ornemaniste français (° 31 décembre 1904).
@@ -785,7 +809,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -803,7 +827,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>3 juillet : Raoul Salan, général français (° 10 juin 1899).
 4 juillet : Karl Lechner, footballeur franco-autrichien (° 24 novembre 1921).
@@ -829,7 +855,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -847,7 +873,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>2 août : Rémy Duval, photographe, peintre et lithographe français (° 16 juillet 1907).
 4 août :
@@ -872,7 +900,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -890,7 +918,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>3 septembre : Albert-Edgar Yersin, graveur, peintre, dessinateur et illustrateur suisse (° 5 septembre 1905).
 8 septembre : René Bernier, compositeur et professeur de musique belge (° 10 mars 1905).
@@ -921,7 +951,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -939,7 +969,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>3 octobre : Salvatore Baccaro, acteur italien (° 6 mai 1932).
 4 octobre :
@@ -972,7 +1004,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -990,7 +1022,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>6 novembre : Mor Faye, peintre abstrait sénégalais (° 26 mars 1947).
 7 novembre : Marcel Barbu, homme politique français (° 17 octobre 1907).
@@ -1000,7 +1034,7 @@
 16 novembre :
 Murray Alper, acteur américain (° 11 janvier 1904).
 Vic Dickenson, musicien de jazz américain spécialiste du trombone (° 6 août 1906).
-18 novembre : Seth Adonkor, footballeur français (° 30 octobre 1961)[2].
+18 novembre : Seth Adonkor, footballeur français (° 30 octobre 1961).
 20 novembre : Alexander Moyzes, compositeur et pédagogue slovaque (° 4 septembre 1906).
 22 novembre : Nguyen Phan Chanh, peintre vietnamien (° 21 juillet 1892).
 23 novembre : Paul Dahlke, acteur allemand (° 12 avril 1904).
@@ -1014,7 +1048,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1032,7 +1066,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1er décembre :
 Roelof Frankot, peintre néerlandais (° 25 novembre 1911).
@@ -1064,7 +1100,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1984</t>
+          <t>Décès_en_1984</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1082,7 +1118,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Odette Bruneau, peintre et sculptrice française (° 27 septembre 1891).
 Thérèse Clément, peintre de paysages et de marines française (° 11 décembre 1889).
